--- a/ICDL/session12.xlsx
+++ b/ICDL/session12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Discovery\ICDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B868CF7-9DC5-4D15-BA13-7B32321A4E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A2F05C-21C5-4F32-BF16-44EE293AB694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>SUM(F3:F17)</t>
   </si>
@@ -45,6 +34,93 @@
   </si>
   <si>
     <t>IF(G2="Ali","Yes","NO")</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Maha</t>
+  </si>
+  <si>
+    <t>Marwa</t>
+  </si>
+  <si>
+    <t>Fatma</t>
+  </si>
+  <si>
+    <t>Godi</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>mohamed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -80,13 +156,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -97,6 +195,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7057A546-63A0-4133-8281-A5BD36A1DC3D}" name="Table1" displayName="Table1" ref="F14:H24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="F14:H24" xr:uid="{7057A546-63A0-4133-8281-A5BD36A1DC3D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AAAD1A49-5506-4327-870A-E2C831816B17}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7BF9F855-05B7-456C-A5C2-8F2E3C752E06}" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3F94AFD5-AFAC-4424-97C6-D0E70DCF7BA7}" name="Salary" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A2A1F4BC-BCE7-48FE-9C21-0EB3AED816D5}" name="Table2" displayName="Table2" ref="B15:D25" totalsRowShown="0">
+  <autoFilter ref="B15:D25" xr:uid="{A2A1F4BC-BCE7-48FE-9C21-0EB3AED816D5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B9518952-101F-4223-B7BB-8EC432E07705}" name="id"/>
+    <tableColumn id="2" xr3:uid="{FB754A51-1A1E-45E1-989A-EE6E9331EF88}" name="name"/>
+    <tableColumn id="3" xr3:uid="{AA0869F4-D237-42CB-8D61-A3DDEB5F86BC}" name="salary"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,20 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="9.21875" customWidth="1"/>
+    <col min="6" max="8" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -383,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -391,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>41</v>
       </c>
@@ -399,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
@@ -408,31 +534,374 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7">
-        <f>RANK(A4,A3:A7,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>RANK(A5,A4:A8,1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9">
         <f>RANK(A6,A5:A9,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>RANK(A6,A2:A6,1)</f>
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" t="str">
+        <f>IF(H19=5000,"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>6000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7500</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8500</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>8500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>4000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4700</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>4700</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6250</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>6250</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3650</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>3650</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <f>SUM(Table1[Salary])</f>
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26">
+        <f>SUM(Table2[salary])</f>
+        <v>52600</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26">
+        <f>AVERAGE(Table1[Salary])</f>
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27">
+        <f>AVERAGE(Table2[salary])</f>
+        <v>5260</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27">
+        <f>MAX(Table1[Salary])</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28">
+        <f>MAX(Table2[salary])</f>
+        <v>8500</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28">
+        <f>MIN(Table1[Salary])</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29">
+        <f>MIN(Table2[salary])</f>
+        <v>3000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29">
+        <f>RANK(H19,Table1[Salary])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30">
+        <f>RANK(D20,Table2[salary])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f>IF(D22=4000,"true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B28:C28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>